--- a/Reports/MacOS/automation/remote/SaucelabsTestAnalysis.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTestAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,13 +32,16 @@
     <t>SaucelabsTest</t>
   </si>
   <si>
+    <t>12/22/21 14:12:54</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/21/21 14:12:54</t>
   </si>
   <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -126,15 +129,21 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -142,7 +151,7 @@
     </row>
     <row r="4">
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -150,7 +159,7 @@
     </row>
     <row r="5">
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -158,10 +167,10 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
